--- a/static/files/Merch-Inventory-Template.xlsx
+++ b/static/files/Merch-Inventory-Template.xlsx
@@ -43,37 +43,37 @@
     <t>Selling-Price</t>
   </si>
   <si>
+    <t>Price-Per-Cubic</t>
+  </si>
+  <si>
+    <t>QtyT</t>
+  </si>
+  <si>
+    <t>QtyR</t>
+  </si>
+  <si>
+    <t>QtyA</t>
+  </si>
+  <si>
+    <t>U/M</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Total-Cost</t>
+  </si>
+  <si>
+    <t>Inventory-Date</t>
+  </si>
+  <si>
+    <t>EXAMPLE</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Price-Per-Cubic</t>
-  </si>
-  <si>
-    <t>QtyT</t>
-  </si>
-  <si>
-    <t>QtyR</t>
-  </si>
-  <si>
-    <t>QtyA</t>
-  </si>
-  <si>
-    <t>U/M</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
-    <t>Total-Cost</t>
-  </si>
-  <si>
-    <t>Inventory-Date</t>
-  </si>
-  <si>
-    <t>EXAMPLE</t>
   </si>
   <si>
     <t>w110</t>
@@ -682,14 +682,13 @@
     <col bestFit="1" customWidth="1" min="7" max="7" width="12.8515625"/>
     <col bestFit="1" customWidth="1" min="8" max="8" width="15.28125"/>
     <col bestFit="1" customWidth="1" min="9" max="9" width="22.7109375"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="18.28125"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" width="17.8515625"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" width="12.140625"/>
-    <col bestFit="1" customWidth="1" min="16" max="16" width="17.140625"/>
-    <col bestFit="1" customWidth="1" min="17" max="17" width="16.8515625"/>
-    <col bestFit="1" customWidth="1" min="18" max="18" width="16.28125"/>
-    <col bestFit="1" customWidth="1" min="19" max="19" width="17.28125"/>
-    <col bestFit="1" customWidth="1" min="20" max="20" width="19.57421875"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" width="17.8515625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="12.140625"/>
+    <col bestFit="1" customWidth="1" min="15" max="15" width="17.140625"/>
+    <col bestFit="1" customWidth="1" min="16" max="16" width="16.8515625"/>
+    <col bestFit="1" customWidth="1" min="17" max="17" width="16.28125"/>
+    <col bestFit="1" customWidth="1" min="18" max="18" width="17.28125"/>
+    <col bestFit="1" customWidth="1" min="19" max="19" width="19.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -744,53 +743,50 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -811,7 +807,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -843,34 +839,34 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" ht="14.25">
